--- a/【小轮子】/【20180803】/rain_week_middle.xlsx
+++ b/【小轮子】/【20180803】/rain_week_middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE876F9F-C531-42F6-BD03-3C1737892B5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA1FA3B-B6A8-48F2-B1B7-14E800CBC9B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{959217BD-BA6C-462C-8A3C-B327D3F57E57}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A000A3-F9C7-4087-A5AE-F2E3EDE5F816}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E156"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -869,13 +869,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,24 +1300,24 @@
         <v>0</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>0.5</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>0.5</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.8</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2187,15 +2187,15 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2938,12 +2938,12 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2955,12 +2955,12 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3040,6 +3040,23 @@
         <v>0</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
